--- a/Transformation/Summary Analysis/Summary Analysis.xlsx
+++ b/Transformation/Summary Analysis/Summary Analysis.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$11</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -499,14 +502,14 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" style="3" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" style="3" customWidth="1"/>
     <col min="5" max="5" width="45.85546875" style="3" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="3" customWidth="1"/>
@@ -981,7 +984,8 @@
       <c r="I25" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>